--- a/output/fit_clients/fit_round_290.xlsx
+++ b/output/fit_clients/fit_round_290.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2463010309.843416</v>
+        <v>2442594669.925093</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09750996696743976</v>
+        <v>0.09921405224494947</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04230480882700983</v>
+        <v>0.04408663677101483</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1231505212.800715</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2255223843.409566</v>
+        <v>1673063932.16292</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1689386162182744</v>
+        <v>0.1791770348351052</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03413377096651325</v>
+        <v>0.03225230104817119</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1127612001.287626</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4794537892.581338</v>
+        <v>4992930873.349041</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1437392269830711</v>
+        <v>0.1060315701984788</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02437085155408038</v>
+        <v>0.02707216128728879</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>105</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2397269016.756386</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3242374537.356077</v>
+        <v>2815236563.569822</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09086085766366304</v>
+        <v>0.0863612135412542</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04181196947780676</v>
+        <v>0.03749597119780988</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1621187322.499876</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1850282447.96331</v>
+        <v>2832216151.225901</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1098417485619339</v>
+        <v>0.1248021443275094</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04426015324424672</v>
+        <v>0.03606396023970069</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>54</v>
-      </c>
-      <c r="J6" t="n">
-        <v>925141269.7794186</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2767940813.589687</v>
+        <v>2415712034.272835</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0629709974998799</v>
+        <v>0.08092639990914732</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03723907321459605</v>
+        <v>0.04659043937772749</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>91</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1383970393.998816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2626538253.916142</v>
+        <v>3039834770.163507</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1990979218777455</v>
+        <v>0.1885242075627326</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02191264255362361</v>
+        <v>0.02569447373992771</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>93</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1313269146.294191</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2236682684.531684</v>
+        <v>2249263431.594745</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1910465796931993</v>
+        <v>0.1601374526043764</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02728846285503951</v>
+        <v>0.02863523857013036</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1118341336.044764</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4585400556.945457</v>
+        <v>5237889749.879269</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2112688666910739</v>
+        <v>0.1593733813672758</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05221474266865542</v>
+        <v>0.04066698726735904</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>122</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2292700345.66054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3867011307.04678</v>
+        <v>3762095938.657211</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1748815577121702</v>
+        <v>0.135882014343758</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03588116004591829</v>
+        <v>0.04510301820831873</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>120</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1933505656.896892</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2030999523.57493</v>
+        <v>3203122545.044466</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1722789835068956</v>
+        <v>0.1282615319838641</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03720226185670133</v>
+        <v>0.03887359905152914</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>98</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1015499691.049626</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4568951568.927754</v>
+        <v>4636270621.697268</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09960050409645467</v>
+        <v>0.06540328890763533</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0244802507400478</v>
+        <v>0.02076297238492375</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>97</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2284475810.498396</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3819628154.130656</v>
+        <v>3091406984.244805</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1704711392686424</v>
+        <v>0.1417371783396511</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02809227982254753</v>
+        <v>0.02681038754437371</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>92</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1909814052.150758</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1333066368.657616</v>
+        <v>1500353099.280315</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07532975923658272</v>
+        <v>0.102152537794529</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04106943346478181</v>
+        <v>0.04946426112529928</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>666533231.9870039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2172342402.122461</v>
+        <v>2384183729.282261</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1158086632425239</v>
+        <v>0.08013431545977</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03219124404535308</v>
+        <v>0.04252697780555725</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>56</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1086171261.144478</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3315844668.222086</v>
+        <v>5104747473.351449</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1326877302978705</v>
+        <v>0.1057667721596346</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04162688121815748</v>
+        <v>0.04349588672735138</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>85</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1657922402.479202</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3689225165.132865</v>
+        <v>2970912622.872821</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1814960046465321</v>
+        <v>0.1765237538928046</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02983881187702334</v>
+        <v>0.02818328936459596</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>95</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1844612562.901119</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>881214855.4439284</v>
+        <v>1246490149.263948</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1589343503916221</v>
+        <v>0.1617352493773612</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01824710722773581</v>
+        <v>0.0215202348159166</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>440607428.0816233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2140003403.876102</v>
+        <v>1905021375.770897</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1103427279916191</v>
+        <v>0.1089532641114657</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02798124662810966</v>
+        <v>0.02368595351002554</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1070001713.370783</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2083945424.065149</v>
+        <v>2536706468.798482</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07169008101494906</v>
+        <v>0.08804600640028726</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04112031252986777</v>
+        <v>0.03573361619850218</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>23</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1041972739.967333</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4021023926.001651</v>
+        <v>3679571226.942468</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09062841488465954</v>
+        <v>0.09062967766454443</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0465094455350653</v>
+        <v>0.04578427312581431</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>81</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2010511963.391757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1306394049.703683</v>
+        <v>1090173113.610635</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1210219989376755</v>
+        <v>0.1122552764560169</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03878299239107208</v>
+        <v>0.03601897192923581</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>653197043.4279684</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3409243842.598096</v>
+        <v>2726392143.286969</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1342485052739127</v>
+        <v>0.1262996346223151</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02341543712503393</v>
+        <v>0.02269689006068326</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>85</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1704621929.015025</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1345107158.582687</v>
+        <v>1320467246.637448</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1042433804561381</v>
+        <v>0.07950965634679641</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02074227502765372</v>
+        <v>0.02954509704820741</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>672553563.8703374</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>974602375.4251647</v>
+        <v>1366911435.616267</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1132302249034297</v>
+        <v>0.07504271078090968</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03056854728851153</v>
+        <v>0.02954919775543035</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>487301153.5869548</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2866386744.609384</v>
+        <v>4347224869.612248</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1250739383606695</v>
+        <v>0.1281463195437406</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01791610323273188</v>
+        <v>0.02513734418257734</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1433193438.761634</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3792699471.597802</v>
+        <v>3009821196.988943</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1283498878497302</v>
+        <v>0.09402987144702493</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03131894277256956</v>
+        <v>0.04336229363789201</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>97</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1896349815.824227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4576070732.032419</v>
+        <v>4115172568.529652</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1152205802687166</v>
+        <v>0.09677464285164704</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03991966648832642</v>
+        <v>0.03682037112418202</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>128</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2288035342.919981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2222663715.886377</v>
+        <v>2346036041.607227</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1382930868488064</v>
+        <v>0.1235881036033199</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02664212592635236</v>
+        <v>0.03200803878960277</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1111331920.793509</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1211125403.501454</v>
+        <v>1398997145.863199</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07863221794189847</v>
+        <v>0.07395105756840169</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03638375510821264</v>
+        <v>0.05266157099685371</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>605562650.5858614</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1577632193.547974</v>
+        <v>1296689165.74525</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1119046364247443</v>
+        <v>0.07884140993926632</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03449639734855788</v>
+        <v>0.0344070267769424</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>788816181.2176404</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1956967266.423381</v>
+        <v>2243248468.143848</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1915133402984609</v>
+        <v>0.2026881138756348</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04537712815041138</v>
+        <v>0.05507328302685074</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>978483717.6484326</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1519484954.544771</v>
+        <v>1271561570.628188</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1195530481506611</v>
+        <v>0.113618074047224</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02356134155270549</v>
+        <v>0.01855192691949874</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>759742429.9136612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>975324847.1338309</v>
+        <v>917148547.4335672</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1096406595042678</v>
+        <v>0.09479926815070751</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03979503385088717</v>
+        <v>0.03984525225868706</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>487662447.5489845</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3200750343.874737</v>
+        <v>2588275234.60851</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1616052013451991</v>
+        <v>0.1345044175313669</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0179406453156705</v>
+        <v>0.02012587695740901</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>74</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1600375137.785461</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2303127588.84622</v>
+        <v>2688963731.24065</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0858326066150716</v>
+        <v>0.1080427009418623</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03507543871058422</v>
+        <v>0.02692356414643528</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>77</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1151563863.386225</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1684761654.041534</v>
+        <v>1805992766.262889</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09110399209371772</v>
+        <v>0.1129429813257273</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02465323930812503</v>
+        <v>0.0261848707020594</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>842380850.175966</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1379351985.884838</v>
+        <v>2164866469.981531</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1860260423008766</v>
+        <v>0.1799486089952951</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02929143947067643</v>
+        <v>0.03273648931692062</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>689676081.6882466</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1498962062.099047</v>
+        <v>1409847472.226802</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1476504455931032</v>
+        <v>0.142655963338962</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05987122862228335</v>
+        <v>0.05997067747994717</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>749480997.515178</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2654039235.029863</v>
+        <v>2483505586.314555</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1345371809239322</v>
+        <v>0.1516788583598593</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04308544887929441</v>
+        <v>0.03600924936236717</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>71</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1327019627.714657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3286010811.775507</v>
+        <v>3071587828.958029</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08406362910252904</v>
+        <v>0.0911821381560205</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03503954614758682</v>
+        <v>0.03414703317635141</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>97</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1643005386.008607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2312342475.637855</v>
+        <v>2099827016.912</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1328629594045496</v>
+        <v>0.148820377439782</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01565553899467207</v>
+        <v>0.02376090139598665</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>106</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1156171305.337572</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1859441450.2906</v>
+        <v>1588837118.442311</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07501891052328567</v>
+        <v>0.07421774497719752</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03225589351666133</v>
+        <v>0.03673169743309634</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>929720803.4378926</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2358455215.061774</v>
+        <v>1892002079.111155</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1255349470851483</v>
+        <v>0.1222109748730644</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0501550652091877</v>
+        <v>0.05619883998675285</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1179227634.561389</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5362598458.913259</v>
+        <v>4208082748.831435</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1195050324605733</v>
+        <v>0.1106065788443546</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05912796382358438</v>
+        <v>0.05011508689513634</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>103</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2681299276.991643</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3133646341.522688</v>
+        <v>4600599435.455024</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1266122879816575</v>
+        <v>0.1673656518366928</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05160247095158288</v>
+        <v>0.05109274814728933</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>78</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1566823120.811507</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3517717513.481562</v>
+        <v>3039101427.607832</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07673142739735736</v>
+        <v>0.1090792993895017</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02759077201270528</v>
+        <v>0.0337609201241408</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1758858819.143298</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1934560316.626284</v>
+        <v>1500454176.59785</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1405271282143133</v>
+        <v>0.1891898067723129</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03702338257697866</v>
+        <v>0.02908508832397246</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>967280122.7652378</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2921454776.826406</v>
+        <v>2653808353.292029</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1480545155584616</v>
+        <v>0.1443305792859876</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04277228214905749</v>
+        <v>0.04697516687254348</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>99</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1460727453.833809</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>971851078.4118767</v>
+        <v>1060229290.370328</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1224174669667734</v>
+        <v>0.160092894852302</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04986553638521039</v>
+        <v>0.03857713021041442</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>485925627.724267</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5266011960.418075</v>
+        <v>4588708906.808481</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09788492542607903</v>
+        <v>0.1384065063221251</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04270697481991891</v>
+        <v>0.05489379348376042</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>120</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2633005962.175718</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3460498960.637907</v>
+        <v>3077572462.656538</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1866179022577834</v>
+        <v>0.1751204795341068</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03239463268836296</v>
+        <v>0.022197361500374</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>82</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1730249480.975779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3844256592.208584</v>
+        <v>3084688042.290385</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1511105436872308</v>
+        <v>0.1367690507045534</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04237487814051742</v>
+        <v>0.03291259167935542</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>94</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1922128347.95956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3542077982.994565</v>
+        <v>3891372282.850637</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1747102435219698</v>
+        <v>0.2138350833685676</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02959505841183158</v>
+        <v>0.03109357631093444</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>77</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1771038946.197727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1742659026.767889</v>
+        <v>1412364074.549927</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1295025922913013</v>
+        <v>0.1448786072285932</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04389294137723223</v>
+        <v>0.05757504164188881</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>871329519.6818438</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3834664801.835539</v>
+        <v>2759350747.221477</v>
       </c>
       <c r="F57" t="n">
-        <v>0.13356890017891</v>
+        <v>0.1197485840334268</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02609633111871441</v>
+        <v>0.02705636279033407</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>92</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1917332475.403801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1304680148.834798</v>
+        <v>1808749031.625522</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1267185104957647</v>
+        <v>0.2015732912169423</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03098037333226882</v>
+        <v>0.0287982960801403</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>652340123.3758954</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4289766792.339459</v>
+        <v>3994760508.948643</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1263517580956527</v>
+        <v>0.07900355213888215</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04673837079914343</v>
+        <v>0.04716532062554374</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>79</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2144883358.143978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2433698657.794037</v>
+        <v>3445186021.512071</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1304228572069049</v>
+        <v>0.1698164659580709</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03227727912042342</v>
+        <v>0.0246275767320854</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>90</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1216849339.84315</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2571722109.236111</v>
+        <v>3347969688.630644</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1660789267732434</v>
+        <v>0.1801631536391868</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02807702493364471</v>
+        <v>0.02291265653110424</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>100</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1285861075.477266</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1406678675.726699</v>
+        <v>1886693413.280547</v>
       </c>
       <c r="F62" t="n">
-        <v>0.12018172423554</v>
+        <v>0.1529857028514054</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03913651823800137</v>
+        <v>0.03061640072032705</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>703339306.9392823</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3952433048.876744</v>
+        <v>5174573320.288562</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07800990167086796</v>
+        <v>0.09959023327015878</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0464364547478238</v>
+        <v>0.04015591336696761</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>82</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1976216588.946759</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4885371606.07252</v>
+        <v>3377575759.607263</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1456375024293858</v>
+        <v>0.1889401391221497</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02757991697920694</v>
+        <v>0.02145044193858404</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>90</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2442685901.172965</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3890680244.89474</v>
+        <v>3951058127.585415</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1220150445044405</v>
+        <v>0.1474533570943942</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01980386916683791</v>
+        <v>0.03109020888964717</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>104</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1945340147.559196</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4266983598.218598</v>
+        <v>5326564626.180181</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1138689993270382</v>
+        <v>0.108647511640758</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04203226706921045</v>
+        <v>0.04429375854327593</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>85</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2133491786.996958</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2315981132.507296</v>
+        <v>2233415246.444795</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1026421179222791</v>
+        <v>0.06759985409459904</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03488538892003619</v>
+        <v>0.03175807195473282</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>93</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1157990642.394967</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4626732027.490088</v>
+        <v>5907730302.984382</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1132304350423128</v>
+        <v>0.1175259445514362</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04452394157984208</v>
+        <v>0.03251259114482434</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2313366047.514447</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2359211362.044876</v>
+        <v>2120926252.640968</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1480452815253916</v>
+        <v>0.1455859606530127</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04802227554160445</v>
+        <v>0.04847759415283658</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1179605732.403055</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2460792469.912007</v>
+        <v>3397048742.38439</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07281241868803166</v>
+        <v>0.07897966569499401</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04484735780467728</v>
+        <v>0.04758513613492679</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>83</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1230396176.813524</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5372208854.909678</v>
+        <v>3447593402.40793</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1297882107335675</v>
+        <v>0.1719910532804451</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02335987081262108</v>
+        <v>0.02788735035427063</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>106</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2686104560.931819</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1907788628.7419</v>
+        <v>2064039038.791832</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07516212710191128</v>
+        <v>0.08350815286567559</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05317586594008242</v>
+        <v>0.04108353563832996</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>953894275.5975004</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3525109673.12871</v>
+        <v>3513905436.410335</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1029761289504055</v>
+        <v>0.1112120371751765</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03500099987114048</v>
+        <v>0.05106822893545209</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>110</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1762554784.462751</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2485860065.441146</v>
+        <v>2628971943.497093</v>
       </c>
       <c r="F74" t="n">
-        <v>0.157175990444876</v>
+        <v>0.1684533505192339</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0338931745717808</v>
+        <v>0.02670387007310111</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>99</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1242930142.534191</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2238106149.664604</v>
+        <v>1530630772.46986</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1627053425235055</v>
+        <v>0.1534268668856477</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03562330378224982</v>
+        <v>0.03546714598873107</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1119053016.695713</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4887275305.145048</v>
+        <v>3561202784.63268</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08809776893923346</v>
+        <v>0.09219456483023598</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02363821020188318</v>
+        <v>0.02570253221926837</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2443637674.461543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1748756058.959666</v>
+        <v>1704951086.271377</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1589430040427801</v>
+        <v>0.136373448883388</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02051191942850843</v>
+        <v>0.03013374008763952</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>874378053.933071</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4732984563.001958</v>
+        <v>3017190397.922765</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1027876596006595</v>
+        <v>0.1351368889242153</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03656730989230425</v>
+        <v>0.0449392943560928</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>101</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2366492194.752602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1481722966.377205</v>
+        <v>1215044314.496218</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1437086168044279</v>
+        <v>0.1467850414612762</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02631474148913495</v>
+        <v>0.02907378675938056</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>740861514.2182018</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3593262792.075553</v>
+        <v>4427590279.635359</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07517445487442176</v>
+        <v>0.1084366107493793</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02627658633160711</v>
+        <v>0.0312828856117375</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>61</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1796631375.267093</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3400560197.629427</v>
+        <v>3572844670.617138</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09375753909146597</v>
+        <v>0.131133957610385</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02245921286129797</v>
+        <v>0.0255063963564643</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1700280039.784172</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4504756821.607655</v>
+        <v>4696609258.022817</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1627897800646423</v>
+        <v>0.1446497266398576</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02471079112063621</v>
+        <v>0.01913426808554068</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>101</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2252378422.399627</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2301409589.888663</v>
+        <v>1626687477.433394</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1064655443111107</v>
+        <v>0.1529389791650899</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03501174993121446</v>
+        <v>0.04378330042580444</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1150704817.800982</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2495149676.880501</v>
+        <v>1866084200.930628</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09226735424839538</v>
+        <v>0.08858247907922077</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05111678156992004</v>
+        <v>0.0387759340715643</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1247574770.938266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2602396907.135072</v>
+        <v>3279279393.501455</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1328100244297362</v>
+        <v>0.1441017586614765</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05564471682735816</v>
+        <v>0.05497923288665944</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>109</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1301198469.82325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2646273836.415164</v>
+        <v>2812993824.095072</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1527958448378162</v>
+        <v>0.1057695674721226</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01658720378200891</v>
+        <v>0.02186615733254868</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>38</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1323137035.714222</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>950081800.9955355</v>
+        <v>1497873983.316362</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1566348116066352</v>
+        <v>0.1844996651178453</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0332945107787346</v>
+        <v>0.02941420267026434</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>475040892.0246914</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3673270303.031045</v>
+        <v>2350588009.744964</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1353817837130668</v>
+        <v>0.1652105652301151</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03921477278235508</v>
+        <v>0.03267784542952017</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>115</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1836635248.507067</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2301350227.870076</v>
+        <v>3179546577.111139</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1360207046967329</v>
+        <v>0.09655958621041172</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02622331051723298</v>
+        <v>0.02551881805061301</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>99</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1150675203.267523</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1679599873.528898</v>
+        <v>2126296972.358471</v>
       </c>
       <c r="F90" t="n">
-        <v>0.13109285972129</v>
+        <v>0.08991614531706137</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04630853577709335</v>
+        <v>0.03759839686260146</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>839799948.3496495</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1689196832.839651</v>
+        <v>1420539342.940324</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1950926432893205</v>
+        <v>0.1697537110374255</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04559102616548505</v>
+        <v>0.03725984893487935</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>844598430.101163</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1945082552.07188</v>
+        <v>2217667457.456195</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08171141840135859</v>
+        <v>0.09185431829187733</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03173897946653782</v>
+        <v>0.03617040396142131</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>74</v>
-      </c>
-      <c r="J92" t="n">
-        <v>972541218.0479491</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3237237304.358473</v>
+        <v>3403120347.028114</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09198962387322608</v>
+        <v>0.1256240031214819</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03735302624803969</v>
+        <v>0.04911017318933163</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1618618702.118207</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2210866527.348161</v>
+        <v>2143268595.465008</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1069406812790658</v>
+        <v>0.1247081702406505</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03375446315569484</v>
+        <v>0.04278653215944136</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1105433289.481529</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2306812230.211574</v>
+        <v>3111082902.383377</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1082870451546288</v>
+        <v>0.126838285521454</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03515391043910624</v>
+        <v>0.04135986134963208</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>70</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1153406165.23872</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2063675896.426103</v>
+        <v>2324565742.385971</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08754096761753639</v>
+        <v>0.1106350793403907</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03301593780199395</v>
+        <v>0.03444993789436754</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1031837928.390535</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3366820761.534238</v>
+        <v>4368861817.369772</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1405750193649185</v>
+        <v>0.1222891059590533</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02839366446447074</v>
+        <v>0.01867355932512118</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>94</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1683410386.22964</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2485823977.588658</v>
+        <v>3548373124.949079</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09325325523957058</v>
+        <v>0.08994254506431248</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02259398654397565</v>
+        <v>0.02184323548761389</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>77</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1242911938.643075</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2251519661.421458</v>
+        <v>3044760701.088862</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1127674602382829</v>
+        <v>0.1177480166507628</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02144325413392751</v>
+        <v>0.03015541966571368</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>91</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1125759762.419962</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3099107101.675835</v>
+        <v>3583433959.748943</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1480913143140399</v>
+        <v>0.160220967862194</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01863384962990154</v>
+        <v>0.01959378746927543</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>89</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1549553549.586145</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3154912470.445014</v>
+        <v>3064433196.320752</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1842996711751904</v>
+        <v>0.1926781475133637</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05065210861805935</v>
+        <v>0.05250152727310207</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>114</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1577456344.754833</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_290.xlsx
+++ b/output/fit_clients/fit_round_290.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2442594669.925093</v>
+        <v>2491905922.314917</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09921405224494947</v>
+        <v>0.08065259952152759</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04408663677101483</v>
+        <v>0.03865483465541505</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1673063932.16292</v>
+        <v>1625202881.847411</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1791770348351052</v>
+        <v>0.1135414325898158</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03225230104817119</v>
+        <v>0.04922685292332438</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4992930873.349041</v>
+        <v>3298631173.26791</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1060315701984788</v>
+        <v>0.1099592598005735</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02707216128728879</v>
+        <v>0.0254603082891998</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2815236563.569822</v>
+        <v>3107654259.785711</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0863612135412542</v>
+        <v>0.1008525441622938</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03749597119780988</v>
+        <v>0.04590879026594868</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2832216151.225901</v>
+        <v>2795965268.287481</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1248021443275094</v>
+        <v>0.1486615597379944</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03606396023970069</v>
+        <v>0.05364423037489054</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2415712034.272835</v>
+        <v>3108938867.538419</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08092639990914732</v>
+        <v>0.07559991894490388</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04659043937772749</v>
+        <v>0.03254385107689736</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3039834770.163507</v>
+        <v>3257028871.656387</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1885242075627326</v>
+        <v>0.1529985271847066</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02569447373992771</v>
+        <v>0.0292724897105597</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2249263431.594745</v>
+        <v>2195960730.551978</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1601374526043764</v>
+        <v>0.1924329685738154</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02863523857013036</v>
+        <v>0.03400690418872703</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5237889749.879269</v>
+        <v>3995354057.588583</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1593733813672758</v>
+        <v>0.2089436203163819</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04066698726735904</v>
+        <v>0.03329457549319163</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3762095938.657211</v>
+        <v>3531909204.253343</v>
       </c>
       <c r="F11" t="n">
-        <v>0.135882014343758</v>
+        <v>0.1420194889251464</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04510301820831873</v>
+        <v>0.03503961806390205</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3203122545.044466</v>
+        <v>2206801101.616443</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1282615319838641</v>
+        <v>0.1251524535087045</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03887359905152914</v>
+        <v>0.03736779184848936</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4636270621.697268</v>
+        <v>5180460768.923658</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06540328890763533</v>
+        <v>0.06735846210552603</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02076297238492375</v>
+        <v>0.0222580933931334</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3091406984.244805</v>
+        <v>2751241804.165734</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1417371783396511</v>
+        <v>0.1561146329046778</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02681038754437371</v>
+        <v>0.03544452090978027</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1500353099.280315</v>
+        <v>1238505178.384725</v>
       </c>
       <c r="F15" t="n">
-        <v>0.102152537794529</v>
+        <v>0.09226737972880104</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04946426112529928</v>
+        <v>0.04440260229815293</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2384183729.282261</v>
+        <v>2377254783.321156</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08013431545977</v>
+        <v>0.0816186651333799</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04252697780555725</v>
+        <v>0.04556030391252872</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5104747473.351449</v>
+        <v>4888056618.926981</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1057667721596346</v>
+        <v>0.1260613784638795</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04349588672735138</v>
+        <v>0.05265408560836375</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2970912622.872821</v>
+        <v>2751402537.812202</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1765237538928046</v>
+        <v>0.1845660114499304</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02818328936459596</v>
+        <v>0.02243639539809035</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1246490149.263948</v>
+        <v>1215784109.184478</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1617352493773612</v>
+        <v>0.1778118715723555</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0215202348159166</v>
+        <v>0.0239808291655285</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1905021375.770897</v>
+        <v>2790991272.831284</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1089532641114657</v>
+        <v>0.1520229838997238</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02368595351002554</v>
+        <v>0.01997622625368383</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2536706468.798482</v>
+        <v>2219501098.497876</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08804600640028726</v>
+        <v>0.0691216460557332</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03573361619850218</v>
+        <v>0.02906447985489119</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3679571226.942468</v>
+        <v>2562591244.35429</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09062967766454443</v>
+        <v>0.1327651774735027</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04578427312581431</v>
+        <v>0.04017273315149283</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1090173113.610635</v>
+        <v>1030970932.596395</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1122552764560169</v>
+        <v>0.1235265739426138</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03601897192923581</v>
+        <v>0.0382999473547373</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2726392143.286969</v>
+        <v>3097528755.747173</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1262996346223151</v>
+        <v>0.1466834653443413</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02269689006068326</v>
+        <v>0.03219564274058411</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1320467246.637448</v>
+        <v>1352219066.783515</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07950965634679641</v>
+        <v>0.1187995761834201</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02954509704820741</v>
+        <v>0.02244357383831208</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1366911435.616267</v>
+        <v>910008525.5465522</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07504271078090968</v>
+        <v>0.08254127585046818</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02954919775543035</v>
+        <v>0.02803534890173664</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4347224869.612248</v>
+        <v>3464082869.690283</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1281463195437406</v>
+        <v>0.1127240760976203</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02513734418257734</v>
+        <v>0.02267288249428147</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3009821196.988943</v>
+        <v>2838734009.85496</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09402987144702493</v>
+        <v>0.1336475330018802</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04336229363789201</v>
+        <v>0.03077350727770381</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4115172568.529652</v>
+        <v>5749560524.884009</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09677464285164704</v>
+        <v>0.1380272240167724</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03682037112418202</v>
+        <v>0.0282801706337052</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2346036041.607227</v>
+        <v>1609375970.575996</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1235881036033199</v>
+        <v>0.1189247882164967</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03200803878960277</v>
+        <v>0.03672327510924162</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1398997145.863199</v>
+        <v>1061692592.317389</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07395105756840169</v>
+        <v>0.1030879846285111</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05266157099685371</v>
+        <v>0.03677061054825033</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1296689165.74525</v>
+        <v>1468436029.16089</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07884140993926632</v>
+        <v>0.09699030267932754</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0344070267769424</v>
+        <v>0.03297562719271076</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2243248468.143848</v>
+        <v>2382461098.432559</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2026881138756348</v>
+        <v>0.1325310269162689</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05507328302685074</v>
+        <v>0.04580509291122713</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1271561570.628188</v>
+        <v>1276759452.370494</v>
       </c>
       <c r="F34" t="n">
-        <v>0.113618074047224</v>
+        <v>0.08060517128489582</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01855192691949874</v>
+        <v>0.02779770326061349</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>917148547.4335672</v>
+        <v>1204051510.066945</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09479926815070751</v>
+        <v>0.09436921712085862</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03984525225868706</v>
+        <v>0.0369786519992512</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2588275234.60851</v>
+        <v>3180805913.115636</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1345044175313669</v>
+        <v>0.1201717115915527</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02012587695740901</v>
+        <v>0.02742720479390052</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2688963731.24065</v>
+        <v>1781571793.508583</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1080427009418623</v>
+        <v>0.1068089459365024</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02692356414643528</v>
+        <v>0.02672152596085082</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1805992766.262889</v>
+        <v>1818124063.798014</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1129429813257273</v>
+        <v>0.1062618823355466</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0261848707020594</v>
+        <v>0.03634753779150382</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2164866469.981531</v>
+        <v>1784474802.090545</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1799486089952951</v>
+        <v>0.1387698229066235</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03273648931692062</v>
+        <v>0.02830122809695141</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1409847472.226802</v>
+        <v>1491062063.609168</v>
       </c>
       <c r="F40" t="n">
-        <v>0.142655963338962</v>
+        <v>0.1186120702319381</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05997067747994717</v>
+        <v>0.04841908801862614</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2483505586.314555</v>
+        <v>1997190240.228543</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1516788583598593</v>
+        <v>0.1603266437875848</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03600924936236717</v>
+        <v>0.04258732753308217</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3071587828.958029</v>
+        <v>2629286558.728832</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0911821381560205</v>
+        <v>0.1090634445155588</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03414703317635141</v>
+        <v>0.03357197785150556</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2099827016.912</v>
+        <v>2997773581.719454</v>
       </c>
       <c r="F43" t="n">
-        <v>0.148820377439782</v>
+        <v>0.1841518599159211</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02376090139598665</v>
+        <v>0.02065567625027788</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1588837118.442311</v>
+        <v>2010968819.503405</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07421774497719752</v>
+        <v>0.06781558759947871</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03673169743309634</v>
+        <v>0.02584723946689163</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1892002079.111155</v>
+        <v>2415736434.027909</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1222109748730644</v>
+        <v>0.1794736342921739</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05619883998675285</v>
+        <v>0.04431433204395118</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4208082748.831435</v>
+        <v>4624356841.311236</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1106065788443546</v>
+        <v>0.1090855093890886</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05011508689513634</v>
+        <v>0.05628317799317863</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4600599435.455024</v>
+        <v>4024486803.878863</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1673656518366928</v>
+        <v>0.1590445761919481</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05109274814728933</v>
+        <v>0.05143751331203457</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3039101427.607832</v>
+        <v>3261138311.187674</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1090792993895017</v>
+        <v>0.07276923209896258</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0337609201241408</v>
+        <v>0.03235562227271045</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1500454176.59785</v>
+        <v>1750983494.757792</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1891898067723129</v>
+        <v>0.1600860116301838</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02908508832397246</v>
+        <v>0.03778516055299414</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2653808353.292029</v>
+        <v>3505768440.868179</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1443305792859876</v>
+        <v>0.1519267538531072</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04697516687254348</v>
+        <v>0.03655599772528817</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1060229290.370328</v>
+        <v>1073517751.57915</v>
       </c>
       <c r="F51" t="n">
-        <v>0.160092894852302</v>
+        <v>0.1273497275013773</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03857713021041442</v>
+        <v>0.04205856349921872</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4588708906.808481</v>
+        <v>3637330983.146046</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1384065063221251</v>
+        <v>0.1176049923655692</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05489379348376042</v>
+        <v>0.05518145104042416</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3077572462.656538</v>
+        <v>3545243730.571118</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1751204795341068</v>
+        <v>0.1337813133401059</v>
       </c>
       <c r="G53" t="n">
-        <v>0.022197361500374</v>
+        <v>0.02699104296591156</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3084688042.290385</v>
+        <v>4554472759.355905</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1367690507045534</v>
+        <v>0.1496716149333052</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03291259167935542</v>
+        <v>0.03490372021743134</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3891372282.850637</v>
+        <v>3321705814.124047</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2138350833685676</v>
+        <v>0.1564555186292232</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03109357631093444</v>
+        <v>0.021665859918773</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1412364074.549927</v>
+        <v>1797725059.83713</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1448786072285932</v>
+        <v>0.1359944000756924</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05757504164188881</v>
+        <v>0.04532467153144789</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2759350747.221477</v>
+        <v>4256096675.714765</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1197485840334268</v>
+        <v>0.1416770670426965</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02705636279033407</v>
+        <v>0.01966594131809501</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1808749031.625522</v>
+        <v>1393768962.521501</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2015732912169423</v>
+        <v>0.1874202133350954</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0287982960801403</v>
+        <v>0.02928365555820646</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3994760508.948643</v>
+        <v>3829858569.362142</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07900355213888215</v>
+        <v>0.1159982109108055</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04716532062554374</v>
+        <v>0.0390066977200405</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3445186021.512071</v>
+        <v>3628506518.994528</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1698164659580709</v>
+        <v>0.1671693523763829</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0246275767320854</v>
+        <v>0.02067583314135713</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3347969688.630644</v>
+        <v>2535368595.574296</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1801631536391868</v>
+        <v>0.150145502588194</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02291265653110424</v>
+        <v>0.02592384297391827</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1886693413.280547</v>
+        <v>2101161763.133823</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1529857028514054</v>
+        <v>0.1345652515160221</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03061640072032705</v>
+        <v>0.03580017667683921</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5174573320.288562</v>
+        <v>5265105237.515232</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09959023327015878</v>
+        <v>0.0748593239147884</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04015591336696761</v>
+        <v>0.03999182095470512</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3377575759.607263</v>
+        <v>4436174001.123414</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1889401391221497</v>
+        <v>0.1238095148031241</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02145044193858404</v>
+        <v>0.02513889071896589</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3951058127.585415</v>
+        <v>5496738090.076305</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1474533570943942</v>
+        <v>0.1232327205783929</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03109020888964717</v>
+        <v>0.03044661017779875</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5326564626.180181</v>
+        <v>4000304423.263006</v>
       </c>
       <c r="F66" t="n">
-        <v>0.108647511640758</v>
+        <v>0.145789574519381</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04429375854327593</v>
+        <v>0.04973377418962587</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2233415246.444795</v>
+        <v>2645482717.87778</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06759985409459904</v>
+        <v>0.09866898637757181</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03175807195473282</v>
+        <v>0.04392303256812805</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5907730302.984382</v>
+        <v>4153223904.986869</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1175259445514362</v>
+        <v>0.1401340492042759</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03251259114482434</v>
+        <v>0.05048998260809894</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2120926252.640968</v>
+        <v>2107604361.719264</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1455859606530127</v>
+        <v>0.1489098026650236</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04847759415283658</v>
+        <v>0.0578851005304728</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3397048742.38439</v>
+        <v>3260305409.388391</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07897966569499401</v>
+        <v>0.08137301489723756</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04758513613492679</v>
+        <v>0.03078279972577692</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3447593402.40793</v>
+        <v>4003201643.717901</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1719910532804451</v>
+        <v>0.1714888105317312</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02788735035427063</v>
+        <v>0.03385419713525042</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2064039038.791832</v>
+        <v>2216767081.085893</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08350815286567559</v>
+        <v>0.09723907242392957</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04108353563832996</v>
+        <v>0.04917255736674034</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3513905436.410335</v>
+        <v>3426707470.341468</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1112120371751765</v>
+        <v>0.09528645558626235</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05106822893545209</v>
+        <v>0.03893768621164688</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2628971943.497093</v>
+        <v>3565762917.579319</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1684533505192339</v>
+        <v>0.1804078453855941</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02670387007310111</v>
+        <v>0.03204591790569986</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1530630772.46986</v>
+        <v>2017155646.433681</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1534268668856477</v>
+        <v>0.1107979071553943</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03546714598873107</v>
+        <v>0.02703865478096278</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3561202784.63268</v>
+        <v>5194498740.13872</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09219456483023598</v>
+        <v>0.1245281765905809</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02570253221926837</v>
+        <v>0.02831179460122066</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1704951086.271377</v>
+        <v>1398917062.145587</v>
       </c>
       <c r="F77" t="n">
-        <v>0.136373448883388</v>
+        <v>0.1781227089585155</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03013374008763952</v>
+        <v>0.02637933535969825</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,13 +2614,13 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3017190397.922765</v>
+        <v>4065400781.375381</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1351368889242153</v>
+        <v>0.08422034294515966</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0449392943560928</v>
+        <v>0.05408783022398592</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1215044314.496218</v>
+        <v>1601397272.150686</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1467850414612762</v>
+        <v>0.166742667183831</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02907378675938056</v>
+        <v>0.02844669383735463</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4427590279.635359</v>
+        <v>4785956002.627049</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1084366107493793</v>
+        <v>0.07663230721090974</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0312828856117375</v>
+        <v>0.02615663791315772</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3572844670.617138</v>
+        <v>4011698214.098455</v>
       </c>
       <c r="F81" t="n">
-        <v>0.131133957610385</v>
+        <v>0.09677167898940246</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0255063963564643</v>
+        <v>0.02103466632595975</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4696609258.022817</v>
+        <v>5033076069.88544</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1446497266398576</v>
+        <v>0.1716587363098488</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01913426808554068</v>
+        <v>0.02887754970521766</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1626687477.433394</v>
+        <v>2079379535.1203</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1529389791650899</v>
+        <v>0.1561713532278562</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04378330042580444</v>
+        <v>0.03412898514817615</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1866084200.930628</v>
+        <v>2397925313.893474</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08858247907922077</v>
+        <v>0.09944497966835313</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0387759340715643</v>
+        <v>0.04518434584625373</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3279279393.501455</v>
+        <v>2796706756.367548</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1441017586614765</v>
+        <v>0.1519564915026609</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05497923288665944</v>
+        <v>0.03520242313845584</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2812993824.095072</v>
+        <v>2273373482.614459</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1057695674721226</v>
+        <v>0.1111907563239178</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02186615733254868</v>
+        <v>0.02299641819707837</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1497873983.316362</v>
+        <v>1450570539.734699</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1844996651178453</v>
+        <v>0.1276281037446193</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02941420267026434</v>
+        <v>0.03618511697254239</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2350588009.744964</v>
+        <v>2738808192.621562</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1652105652301151</v>
+        <v>0.1597173364036472</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03267784542952017</v>
+        <v>0.0302847056451581</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3179546577.111139</v>
+        <v>3012173109.399277</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09655958621041172</v>
+        <v>0.1466578454503034</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02551881805061301</v>
+        <v>0.03697295457437907</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2126296972.358471</v>
+        <v>1486648083.610789</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08991614531706137</v>
+        <v>0.1211231571717221</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03759839686260146</v>
+        <v>0.0411749732694914</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1420539342.940324</v>
+        <v>1407680500.927754</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1697537110374255</v>
+        <v>0.1846845573792514</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03725984893487935</v>
+        <v>0.04163427386968582</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2217667457.456195</v>
+        <v>1961014870.424444</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09185431829187733</v>
+        <v>0.09353157778000096</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03617040396142131</v>
+        <v>0.03160949960248394</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3403120347.028114</v>
+        <v>4074208727.098962</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1256240031214819</v>
+        <v>0.1149449615075721</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04911017318933163</v>
+        <v>0.04925066724546801</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2143268595.465008</v>
+        <v>2209188884.596612</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1247081702406505</v>
+        <v>0.137153746715363</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04278653215944136</v>
+        <v>0.03168699570286332</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3111082902.383377</v>
+        <v>2048736150.067996</v>
       </c>
       <c r="F95" t="n">
-        <v>0.126838285521454</v>
+        <v>0.1161568004921515</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04135986134963208</v>
+        <v>0.05009975148153263</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2324565742.385971</v>
+        <v>2266168843.155915</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1106350793403907</v>
+        <v>0.09459231367637119</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03444993789436754</v>
+        <v>0.03745466088420841</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4368861817.369772</v>
+        <v>4319850825.179235</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1222891059590533</v>
+        <v>0.1394883457684545</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01867355932512118</v>
+        <v>0.02303041904180099</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3548373124.949079</v>
+        <v>2743871013.431211</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08994254506431248</v>
+        <v>0.1233540688471887</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02184323548761389</v>
+        <v>0.02914676818546387</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3044760701.088862</v>
+        <v>2514437995.838597</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1177480166507628</v>
+        <v>0.1129933807166908</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03015541966571368</v>
+        <v>0.03081061665292974</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3583433959.748943</v>
+        <v>3706437786.717365</v>
       </c>
       <c r="F100" t="n">
-        <v>0.160220967862194</v>
+        <v>0.1423749062838016</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01959378746927543</v>
+        <v>0.02428131943779571</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3064433196.320752</v>
+        <v>3519580180.839657</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1926781475133637</v>
+        <v>0.2189993143097858</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05250152727310207</v>
+        <v>0.05079780223000263</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_290.xlsx
+++ b/output/fit_clients/fit_round_290.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2491905922.314917</v>
+        <v>2012991284.408525</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08065259952152759</v>
+        <v>0.0899287064473667</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03865483465541505</v>
+        <v>0.03688726259159546</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1625202881.847411</v>
+        <v>2016251510.339178</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1135414325898158</v>
+        <v>0.1269522750755052</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04922685292332438</v>
+        <v>0.04280182534926714</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3298631173.26791</v>
+        <v>5078754826.470149</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1099592598005735</v>
+        <v>0.1070463496285988</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0254603082891998</v>
+        <v>0.03306035538524262</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>153</v>
+      </c>
+      <c r="J4" t="n">
+        <v>290</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,16 +606,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3107654259.785711</v>
+        <v>3014149359.340592</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1008525441622938</v>
+        <v>0.07634113923866755</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04590879026594868</v>
+        <v>0.03854231587356323</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>119</v>
+      </c>
+      <c r="J5" t="n">
+        <v>289</v>
+      </c>
+      <c r="K5" t="n">
+        <v>77.14204839131055</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2795965268.287481</v>
+        <v>2735522832.606246</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1486615597379944</v>
+        <v>0.10878746933837</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05364423037489054</v>
+        <v>0.04935743796958455</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3108938867.538419</v>
+        <v>2922176242.932213</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07559991894490388</v>
+        <v>0.098157903552186</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03254385107689736</v>
+        <v>0.04176338065249691</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3257028871.656387</v>
+        <v>3237242879.014165</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1529985271847066</v>
+        <v>0.2107225912995771</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0292724897105597</v>
+        <v>0.02438178709862021</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>78</v>
+      </c>
+      <c r="J8" t="n">
+        <v>289</v>
+      </c>
+      <c r="K8" t="n">
+        <v>84.63822791225169</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2195960730.551978</v>
+        <v>1998161222.614122</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1924329685738154</v>
+        <v>0.1882071990004712</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03400690418872703</v>
+        <v>0.03289054871053722</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3995354057.588583</v>
+        <v>5621573804.890891</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2089436203163819</v>
+        <v>0.1444447007404481</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03329457549319163</v>
+        <v>0.03551890342132255</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>259</v>
+      </c>
+      <c r="J10" t="n">
+        <v>290</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3531909204.253343</v>
+        <v>3206782996.321886</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1420194889251464</v>
+        <v>0.1785410495910106</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03503961806390205</v>
+        <v>0.04731795335763139</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>118</v>
+      </c>
+      <c r="J11" t="n">
+        <v>289</v>
+      </c>
+      <c r="K11" t="n">
+        <v>85.03763825224063</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2206801101.616443</v>
+        <v>2629806512.345108</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1251524535087045</v>
+        <v>0.1418618051436633</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03736779184848936</v>
+        <v>0.05183549730628914</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5180460768.923658</v>
+        <v>3395951046.732913</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06735846210552603</v>
+        <v>0.09713528607259005</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0222580933931334</v>
+        <v>0.02759201727332177</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>148</v>
+      </c>
+      <c r="J13" t="n">
+        <v>289</v>
+      </c>
+      <c r="K13" t="n">
+        <v>85.10682352311262</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +923,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2751241804.165734</v>
+        <v>3333264353.271606</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1561146329046778</v>
+        <v>0.1879941901625389</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03544452090978027</v>
+        <v>0.03273242008534777</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>59</v>
+      </c>
+      <c r="J14" t="n">
+        <v>290</v>
+      </c>
+      <c r="K14" t="n">
+        <v>94.47657343227361</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +966,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1238505178.384725</v>
+        <v>1554743038.600505</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09226737972880104</v>
+        <v>0.09333974589810078</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04440260229815293</v>
+        <v>0.0375941934578175</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +995,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2377254783.321156</v>
+        <v>1886470275.435714</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0816186651333799</v>
+        <v>0.1021084447826947</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04556030391252872</v>
+        <v>0.04858505170026572</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1030,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4888056618.926981</v>
+        <v>3369005588.694114</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1260613784638795</v>
+        <v>0.1706849939337217</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05265408560836375</v>
+        <v>0.03711226621568187</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>138</v>
+      </c>
+      <c r="J17" t="n">
+        <v>289</v>
+      </c>
+      <c r="K17" t="n">
+        <v>79.75188913904162</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1073,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2751402537.812202</v>
+        <v>2606781122.404571</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1845660114499304</v>
+        <v>0.1352247540427992</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02243639539809035</v>
+        <v>0.03341203941907931</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>74</v>
+      </c>
+      <c r="J18" t="n">
+        <v>289</v>
+      </c>
+      <c r="K18" t="n">
+        <v>54.08657032866843</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1110,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1215784109.184478</v>
+        <v>1265436722.130874</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1778118715723555</v>
+        <v>0.1790934226981584</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0239808291655285</v>
+        <v>0.01687432793594932</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1139,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2790991272.831284</v>
+        <v>2642147322.582257</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1520229838997238</v>
+        <v>0.1083428425549884</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01997622625368383</v>
+        <v>0.03025854324722045</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1174,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2219501098.497876</v>
+        <v>2203233201.974372</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0691216460557332</v>
+        <v>0.077195241618782</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02906447985489119</v>
+        <v>0.04541379962759791</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1209,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2562591244.35429</v>
+        <v>3092937605.352386</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1327651774735027</v>
+        <v>0.09368497339713126</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04017273315149283</v>
+        <v>0.03921893908247764</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>78</v>
+      </c>
+      <c r="J22" t="n">
+        <v>288</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1250,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1030970932.596395</v>
+        <v>1286696587.439102</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1235265739426138</v>
+        <v>0.1842866499783059</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0382999473547373</v>
+        <v>0.04627426336469664</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1279,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3097528755.747173</v>
+        <v>4087869389.669242</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1466834653443413</v>
+        <v>0.1080003470541047</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03219564274058411</v>
+        <v>0.03377895019536604</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>85</v>
+      </c>
+      <c r="J24" t="n">
+        <v>290</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1314,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1352219066.783515</v>
+        <v>1020792617.489802</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1187995761834201</v>
+        <v>0.07857751884816704</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02244357383831208</v>
+        <v>0.03071406011703831</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1355,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>910008525.5465522</v>
+        <v>1361884379.248596</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08254127585046818</v>
+        <v>0.07961657900889771</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02803534890173664</v>
+        <v>0.03248969872764335</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1384,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3464082869.690283</v>
+        <v>3641922205.3411</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1127240760976203</v>
+        <v>0.1331287527487812</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02267288249428147</v>
+        <v>0.01845070610712853</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>119</v>
+      </c>
+      <c r="J27" t="n">
+        <v>289</v>
+      </c>
+      <c r="K27" t="n">
+        <v>79.71204465800355</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1421,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2838734009.85496</v>
+        <v>3892460568.062842</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1336475330018802</v>
+        <v>0.1039112823653678</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03077350727770381</v>
+        <v>0.03457696904603665</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>60</v>
+      </c>
+      <c r="J28" t="n">
+        <v>290</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1456,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5749560524.884009</v>
+        <v>5290388925.426308</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1380272240167724</v>
+        <v>0.09923147917830336</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0282801706337052</v>
+        <v>0.0363793920035272</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>275</v>
+      </c>
+      <c r="J29" t="n">
+        <v>290</v>
+      </c>
+      <c r="K29" t="n">
+        <v>88.7333413037436</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1493,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1609375970.575996</v>
+        <v>1538780520.975685</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1189247882164967</v>
+        <v>0.1114290210680986</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03672327510924162</v>
+        <v>0.02705045230399303</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1528,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1061692592.317389</v>
+        <v>1401790858.730157</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1030879846285111</v>
+        <v>0.09564866930759537</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03677061054825033</v>
+        <v>0.03837907510129775</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1569,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1468436029.16089</v>
+        <v>1649271386.687865</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09699030267932754</v>
+        <v>0.08036587606874318</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03297562719271076</v>
+        <v>0.03466678529279023</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1604,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2382461098.432559</v>
+        <v>2216860565.529949</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1325310269162689</v>
+        <v>0.163635668287627</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04580509291122713</v>
+        <v>0.03790421597330637</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1633,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1276759452.370494</v>
+        <v>1452982349.48041</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08060517128489582</v>
+        <v>0.09696403746379953</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02779770326061349</v>
+        <v>0.02747835941636447</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1668,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1204051510.066945</v>
+        <v>1223281037.722653</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09436921712085862</v>
+        <v>0.1031635585739679</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0369786519992512</v>
+        <v>0.0417048627639824</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1703,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3180805913.115636</v>
+        <v>2651673535.60478</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1201717115915527</v>
+        <v>0.1186564522341131</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02742720479390052</v>
+        <v>0.02749638324805446</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1738,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1781571793.508583</v>
+        <v>2293505190.213027</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1068089459365024</v>
+        <v>0.07598831886546592</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02672152596085082</v>
+        <v>0.02732507324528421</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1779,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1818124063.798014</v>
+        <v>1680041276.901336</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1062618823355466</v>
+        <v>0.1069254245678337</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03634753779150382</v>
+        <v>0.03612336650052661</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1808,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1784474802.090545</v>
+        <v>1956816048.208079</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1387698229066235</v>
+        <v>0.1323009863137389</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02830122809695141</v>
+        <v>0.02200641528161862</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1843,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1491062063.609168</v>
+        <v>1374356196.141798</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1186120702319381</v>
+        <v>0.1432416654983685</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04841908801862614</v>
+        <v>0.04586452560284569</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1878,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1997190240.228543</v>
+        <v>2634378511.707141</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1603266437875848</v>
+        <v>0.1404370204491171</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04258732753308217</v>
+        <v>0.03620359099645017</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1919,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2629286558.728832</v>
+        <v>4073418198.48916</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1090634445155588</v>
+        <v>0.1072717982114501</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03357197785150556</v>
+        <v>0.02955916187819049</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>119</v>
+      </c>
+      <c r="J42" t="n">
+        <v>290</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1948,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2997773581.719454</v>
+        <v>2407063948.909102</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1841518599159211</v>
+        <v>0.1285620858553055</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02065567625027788</v>
+        <v>0.02101435644168945</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1983,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2010968819.503405</v>
+        <v>1477436520.826058</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06781558759947871</v>
+        <v>0.08323342181887557</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02584723946689163</v>
+        <v>0.03560975816545337</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2024,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2415736434.027909</v>
+        <v>2029027303.920904</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1794736342921739</v>
+        <v>0.1867759848009676</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04431433204395118</v>
+        <v>0.04297350765752376</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2053,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4624356841.311236</v>
+        <v>5211975278.267255</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1090855093890886</v>
+        <v>0.1289324308897654</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05628317799317863</v>
+        <v>0.05234757052163037</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>171</v>
+      </c>
+      <c r="J46" t="n">
+        <v>290</v>
+      </c>
+      <c r="K46" t="n">
+        <v>88.01858618735454</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2090,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4024486803.878863</v>
+        <v>5108959907.54838</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1590445761919481</v>
+        <v>0.1232222767426285</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05143751331203457</v>
+        <v>0.04225143200378923</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>130</v>
+      </c>
+      <c r="J47" t="n">
+        <v>289</v>
+      </c>
+      <c r="K47" t="n">
+        <v>74.54681598405159</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2127,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3261138311.187674</v>
+        <v>4519446706.032747</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07276923209896258</v>
+        <v>0.09833366748872815</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03235562227271045</v>
+        <v>0.03136148706791808</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>144</v>
+      </c>
+      <c r="J48" t="n">
+        <v>290</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2162,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1750983494.757792</v>
+        <v>1235734442.017387</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1600860116301838</v>
+        <v>0.1271711199740792</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03778516055299414</v>
+        <v>0.04195661967504302</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2197,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3505768440.868179</v>
+        <v>4059676015.888139</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1519267538531072</v>
+        <v>0.1157519731530065</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03655599772528817</v>
+        <v>0.03248603492656234</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>92</v>
+      </c>
+      <c r="J50" t="n">
+        <v>290</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2232,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1073517751.57915</v>
+        <v>1357006939.382609</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1273497275013773</v>
+        <v>0.1743906632509146</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04205856349921872</v>
+        <v>0.0544603457081295</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2273,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3637330983.146046</v>
+        <v>5091929514.672701</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1176049923655692</v>
+        <v>0.1234536560520178</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05518145104042416</v>
+        <v>0.04898978583982914</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>180</v>
+      </c>
+      <c r="J52" t="n">
+        <v>290</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2302,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3545243730.571118</v>
+        <v>3754836973.619428</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1337813133401059</v>
+        <v>0.2023709738866982</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02699104296591156</v>
+        <v>0.0296292904875654</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>40</v>
+      </c>
+      <c r="J53" t="n">
+        <v>282</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4554472759.355905</v>
+        <v>3541550586.600165</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1496716149333052</v>
+        <v>0.1553021457596414</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03490372021743134</v>
+        <v>0.03445834488942655</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>153</v>
+      </c>
+      <c r="J54" t="n">
+        <v>288</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,16 +2378,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3321705814.124047</v>
+        <v>3439729934.1706</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1564555186292232</v>
+        <v>0.1504837058268499</v>
       </c>
       <c r="G55" t="n">
-        <v>0.021665859918773</v>
+        <v>0.02759739680225695</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>132</v>
+      </c>
+      <c r="J55" t="n">
+        <v>290</v>
+      </c>
+      <c r="K55" t="n">
+        <v>88.8639044773705</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1797725059.83713</v>
+        <v>1358241237.956288</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1359944000756924</v>
+        <v>0.1268213051879852</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04532467153144789</v>
+        <v>0.05105562349346601</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2450,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4256096675.714765</v>
+        <v>2912237069.671474</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1416770670426965</v>
+        <v>0.120149406261414</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01966594131809501</v>
+        <v>0.02752108235619365</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>118</v>
+      </c>
+      <c r="J57" t="n">
+        <v>289</v>
+      </c>
+      <c r="K57" t="n">
+        <v>63.63804543283175</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2481,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1393768962.521501</v>
+        <v>1544270595.37313</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1874202133350954</v>
+        <v>0.2021566092687716</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02928365555820646</v>
+        <v>0.02693308891539012</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2516,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3829858569.362142</v>
+        <v>4765460501.567266</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1159982109108055</v>
+        <v>0.1287110477631428</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0390066977200405</v>
+        <v>0.03788172373866663</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>140</v>
+      </c>
+      <c r="J59" t="n">
+        <v>289</v>
+      </c>
+      <c r="K59" t="n">
+        <v>82.93502594652739</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2559,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3628506518.994528</v>
+        <v>3592242226.357287</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1671693523763829</v>
+        <v>0.1564104360645454</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02067583314135713</v>
+        <v>0.02617523666542943</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>286</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2535368595.574296</v>
+        <v>2146234736.390018</v>
       </c>
       <c r="F61" t="n">
-        <v>0.150145502588194</v>
+        <v>0.1203282752469078</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02592384297391827</v>
+        <v>0.03160223384177793</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2101161763.133823</v>
+        <v>2054855450.624384</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1345652515160221</v>
+        <v>0.1942400451762839</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03580017667683921</v>
+        <v>0.04221929522554007</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2658,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5265105237.515232</v>
+        <v>3745312702.464127</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0748593239147884</v>
+        <v>0.1044185662381017</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03999182095470512</v>
+        <v>0.04699341764016652</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>141</v>
+      </c>
+      <c r="J63" t="n">
+        <v>289</v>
+      </c>
+      <c r="K63" t="n">
+        <v>84.51392606917541</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2701,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4436174001.123414</v>
+        <v>3901743434.26642</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1238095148031241</v>
+        <v>0.1182323859664365</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02513889071896589</v>
+        <v>0.02974182313097131</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>142</v>
+      </c>
+      <c r="J64" t="n">
+        <v>290</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2730,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5496738090.076305</v>
+        <v>4246572417.112511</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1232327205783929</v>
+        <v>0.1599562740860755</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03044661017779875</v>
+        <v>0.02375262534302686</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>231</v>
+      </c>
+      <c r="J65" t="n">
+        <v>290</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4000304423.263006</v>
+        <v>3450355312.36257</v>
       </c>
       <c r="F66" t="n">
-        <v>0.145789574519381</v>
+        <v>0.1473978726150854</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04973377418962587</v>
+        <v>0.04448577044467051</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>143</v>
+      </c>
+      <c r="J66" t="n">
+        <v>288</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2645482717.87778</v>
+        <v>3502630676.155438</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09866898637757181</v>
+        <v>0.1017481306946832</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04392303256812805</v>
+        <v>0.03502890861014173</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4153223904.986869</v>
+        <v>4525072256.482946</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1401340492042759</v>
+        <v>0.1489977918003356</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05048998260809894</v>
+        <v>0.04198945166515583</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>152</v>
+      </c>
+      <c r="J68" t="n">
+        <v>290</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2107604361.719264</v>
+        <v>2245278659.858244</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1489098026650236</v>
+        <v>0.1593967454494323</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0578851005304728</v>
+        <v>0.04770669356373571</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3260305409.388391</v>
+        <v>3366250376.331769</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08137301489723756</v>
+        <v>0.09240483971255775</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03078279972577692</v>
+        <v>0.04837300774659543</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>42</v>
+      </c>
+      <c r="J70" t="n">
+        <v>286</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4003201643.717901</v>
+        <v>5156628950.172542</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1714888105317312</v>
+        <v>0.1293358960854257</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03385419713525042</v>
+        <v>0.02447703896908347</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>217</v>
+      </c>
+      <c r="J71" t="n">
+        <v>289</v>
+      </c>
+      <c r="K71" t="n">
+        <v>86.87656177643564</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2216767081.085893</v>
+        <v>1869495764.544575</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09723907242392957</v>
+        <v>0.08752285013771456</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04917255736674034</v>
+        <v>0.04131472812548821</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3426707470.341468</v>
+        <v>2476575595.273118</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09528645558626235</v>
+        <v>0.07979804446177045</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03893768621164688</v>
+        <v>0.0460003741012399</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3565762917.579319</v>
+        <v>3840073466.52301</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1804078453855941</v>
+        <v>0.1213136576728556</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03204591790569986</v>
+        <v>0.03276315349487827</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>77</v>
+      </c>
+      <c r="J74" t="n">
+        <v>290</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2017155646.433681</v>
+        <v>1931308940.23395</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1107979071553943</v>
+        <v>0.1193032819872844</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02703865478096278</v>
+        <v>0.0335110138097872</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5194498740.13872</v>
+        <v>4566655245.011191</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1245281765905809</v>
+        <v>0.08532525777037926</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02831179460122066</v>
+        <v>0.02893568645270023</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>136</v>
+      </c>
+      <c r="J76" t="n">
+        <v>289</v>
+      </c>
+      <c r="K76" t="n">
+        <v>81.27328804199549</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1398917062.145587</v>
+        <v>2093711566.533597</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1781227089585155</v>
+        <v>0.1488623243960261</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02637933535969825</v>
+        <v>0.02864515419293774</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4065400781.375381</v>
+        <v>3408402096.966557</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08422034294515966</v>
+        <v>0.09378482172254206</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05408783022398592</v>
+        <v>0.05596545970702999</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>145</v>
+      </c>
+      <c r="J78" t="n">
+        <v>289</v>
+      </c>
+      <c r="K78" t="n">
+        <v>85.14125809748016</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1601397272.150686</v>
+        <v>1762794227.725061</v>
       </c>
       <c r="F79" t="n">
-        <v>0.166742667183831</v>
+        <v>0.1517170194698835</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02844669383735463</v>
+        <v>0.02823555856532957</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3261,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4785956002.627049</v>
+        <v>5115794932.78588</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07663230721090974</v>
+        <v>0.09971996648516827</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02615663791315772</v>
+        <v>0.02691205380472633</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>142</v>
+      </c>
+      <c r="J80" t="n">
+        <v>289</v>
+      </c>
+      <c r="K80" t="n">
+        <v>65.67442787696901</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4011698214.098455</v>
+        <v>3672969714.058896</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09677167898940246</v>
+        <v>0.09938576072573888</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02103466632595975</v>
+        <v>0.02972582540957059</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>133</v>
+      </c>
+      <c r="J81" t="n">
+        <v>288</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5033076069.88544</v>
+        <v>4199627895.950895</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1716587363098488</v>
+        <v>0.153576068500013</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02887754970521766</v>
+        <v>0.02847444289281162</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>213</v>
+      </c>
+      <c r="J82" t="n">
+        <v>290</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2079379535.1203</v>
+        <v>2004460015.523527</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1561713532278562</v>
+        <v>0.1069352097543254</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03412898514817615</v>
+        <v>0.03334967735990388</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2397925313.893474</v>
+        <v>1908322515.749147</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09944497966835313</v>
+        <v>0.09497108045657536</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04518434584625373</v>
+        <v>0.03171860146759617</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2796706756.367548</v>
+        <v>2694502389.321261</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1519564915026609</v>
+        <v>0.1515665628285655</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03520242313845584</v>
+        <v>0.05548550098889562</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2273373482.614459</v>
+        <v>2673268274.399931</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1111907563239178</v>
+        <v>0.1170961726090824</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02299641819707837</v>
+        <v>0.01913440676455829</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1450570539.734699</v>
+        <v>1162783335.121385</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1276281037446193</v>
+        <v>0.1767472311864524</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03618511697254239</v>
+        <v>0.03596252861067152</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2738808192.621562</v>
+        <v>3019758177.425817</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1597173364036472</v>
+        <v>0.1399766505905893</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0302847056451581</v>
+        <v>0.02707369383000882</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>41</v>
+      </c>
+      <c r="J88" t="n">
+        <v>284</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3012173109.399277</v>
+        <v>2778675896.817413</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1466578454503034</v>
+        <v>0.1383291350763679</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03697295457437907</v>
+        <v>0.03504013555023371</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1486648083.610789</v>
+        <v>1629313710.444681</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1211231571717221</v>
+        <v>0.1321590218800365</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0411749732694914</v>
+        <v>0.04685009492320976</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1407680500.927754</v>
+        <v>1823229690.25572</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1846845573792514</v>
+        <v>0.1772980247329951</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04163427386968582</v>
+        <v>0.04104815746723665</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1961014870.424444</v>
+        <v>2091951431.417224</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09353157778000096</v>
+        <v>0.09637600943558355</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03160949960248394</v>
+        <v>0.02869982404947482</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4074208727.098962</v>
+        <v>4333772809.042187</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1149449615075721</v>
+        <v>0.1078643880615164</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04925066724546801</v>
+        <v>0.03668487807639105</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>127</v>
+      </c>
+      <c r="J93" t="n">
+        <v>290</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2209188884.596612</v>
+        <v>2312862764.849883</v>
       </c>
       <c r="F94" t="n">
-        <v>0.137153746715363</v>
+        <v>0.1504154593443359</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03168699570286332</v>
+        <v>0.0263802851869682</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2048736150.067996</v>
+        <v>2471033028.897291</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1161568004921515</v>
+        <v>0.1286611272890487</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05009975148153263</v>
+        <v>0.04154390898152172</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2266168843.155915</v>
+        <v>2231215489.301918</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09459231367637119</v>
+        <v>0.1212613123841787</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03745466088420841</v>
+        <v>0.03030642856703877</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4319850825.179235</v>
+        <v>4211520215.529212</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1394883457684545</v>
+        <v>0.1485080347681165</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02303041904180099</v>
+        <v>0.02708348045577853</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>143</v>
+      </c>
+      <c r="J97" t="n">
+        <v>290</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2743871013.431211</v>
+        <v>3735977191.291525</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1233540688471887</v>
+        <v>0.1122679350179114</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02914676818546387</v>
+        <v>0.03239072001298977</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>70</v>
+      </c>
+      <c r="J98" t="n">
+        <v>288</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2514437995.838597</v>
+        <v>2989323049.628304</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1129933807166908</v>
+        <v>0.1096131943425516</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03081061665292974</v>
+        <v>0.03102607224031054</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3706437786.717365</v>
+        <v>4298320155.583572</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1423749062838016</v>
+        <v>0.1193364086694701</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02428131943779571</v>
+        <v>0.0273653363191415</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>124</v>
+      </c>
+      <c r="J100" t="n">
+        <v>290</v>
+      </c>
+      <c r="K100" t="n">
+        <v>90.34144244954372</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3519580180.839657</v>
+        <v>3466973522.596412</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2189993143097858</v>
+        <v>0.1959356887352991</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05079780223000263</v>
+        <v>0.05824997170666636</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
